--- a/google_form_reply.xlsx
+++ b/google_form_reply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Desktop/midterm_correction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61047F4E-9D75-6840-A3E0-13FC851BA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62D2B9-BF67-9147-8BAB-B4D7F5CDC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="33600" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="940" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表單回應 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="377">
   <si>
     <t>時間戳記</t>
   </si>
@@ -221,9 +221,6 @@
 </t>
   </si>
   <si>
-    <t>Macbook -pro</t>
-  </si>
-  <si>
     <t>400s</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>李苡瑄</t>
   </si>
   <si>
-    <t>2607:f8b0:4004:80a:0:0:0:200e</t>
-  </si>
-  <si>
     <t>dongting818@gmail.com</t>
   </si>
   <si>
@@ -836,9 +830,6 @@
   </si>
   <si>
     <t>張家豐</t>
-  </si>
-  <si>
-    <t>MacBook -Pro</t>
   </si>
   <si>
     <t>tim179422507@gmail.com</t>
@@ -987,9 +978,6 @@
   </si>
   <si>
     <t>陳冠學</t>
-  </si>
-  <si>
-    <t>macbook -pro</t>
   </si>
   <si>
     <t>a2001900913@gmail.com</t>
@@ -1468,9 +1456,9 @@
   </sheetPr>
   <dimension ref="A1:AQ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R39" sqref="R39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1638,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>60</v>
@@ -1731,13 +1719,13 @@
         <v>51</v>
       </c>
       <c r="AO2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1769,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>38</v>
@@ -1790,7 +1778,7 @@
         <v>62</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>40</v>
@@ -1802,10 +1790,10 @@
         <v>42</v>
       </c>
       <c r="U3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>43</v>
@@ -1862,13 +1850,13 @@
         <v>51</v>
       </c>
       <c r="AO3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1876,10 +1864,10 @@
         <v>44518.656115486112</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D4" s="3">
         <v>110062325</v>
@@ -1897,7 +1885,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>58</v>
@@ -1906,7 +1894,7 @@
         <v>38</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>60</v>
@@ -1927,16 +1915,16 @@
         <v>40</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>43</v>
@@ -1993,13 +1981,13 @@
         <v>51</v>
       </c>
       <c r="AO4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2007,10 +1995,10 @@
         <v>44518.656517037038</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D5" s="3">
         <v>110062321</v>
@@ -2037,7 +2025,7 @@
         <v>38</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>60</v>
@@ -2046,10 +2034,10 @@
         <v>443</v>
       </c>
       <c r="O5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>39</v>
@@ -2064,10 +2052,10 @@
         <v>42</v>
       </c>
       <c r="U5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>43</v>
@@ -2124,13 +2112,13 @@
         <v>51</v>
       </c>
       <c r="AO5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AQ5" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2138,10 +2126,10 @@
         <v>44518.656668124997</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="3">
         <v>110062301</v>
@@ -2168,7 +2156,7 @@
         <v>38</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>60</v>
@@ -2177,7 +2165,7 @@
         <v>443</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>62</v>
@@ -2255,13 +2243,13 @@
         <v>51</v>
       </c>
       <c r="AO6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2269,10 +2257,10 @@
         <v>44518.656753229166</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D7" s="3">
         <v>110062102</v>
@@ -2299,7 +2287,7 @@
         <v>38</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>60</v>
@@ -2308,7 +2296,7 @@
         <v>443</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>62</v>
@@ -2326,10 +2314,10 @@
         <v>42</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>43</v>
@@ -2386,13 +2374,13 @@
         <v>51</v>
       </c>
       <c r="AO7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2400,10 +2388,10 @@
         <v>44518.656912407409</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D8" s="3">
         <v>110062306</v>
@@ -2430,7 +2418,7 @@
         <v>38</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>60</v>
@@ -2442,10 +2430,10 @@
         <v>61</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>40</v>
@@ -2457,10 +2445,10 @@
         <v>42</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>43</v>
@@ -2517,13 +2505,13 @@
         <v>51</v>
       </c>
       <c r="AO8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP8" s="3" t="s">
+      <c r="AQ8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ8" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2531,10 +2519,10 @@
         <v>44518.657032465278</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="3">
         <v>110062221</v>
@@ -2561,7 +2549,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>60</v>
@@ -2570,13 +2558,13 @@
         <v>443</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>40</v>
@@ -2588,10 +2576,10 @@
         <v>42</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>43</v>
@@ -2648,13 +2636,13 @@
         <v>51</v>
       </c>
       <c r="AO9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP9" s="3" t="s">
+      <c r="AQ9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ9" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2662,10 +2650,10 @@
         <v>44518.657233865742</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="3">
         <v>110062222</v>
@@ -2692,7 +2680,7 @@
         <v>38</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>60</v>
@@ -2704,7 +2692,7 @@
         <v>61</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>39</v>
@@ -2719,10 +2707,10 @@
         <v>42</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>43</v>
@@ -2779,13 +2767,13 @@
         <v>51</v>
       </c>
       <c r="AO10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="AQ10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ10" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2793,10 +2781,10 @@
         <v>44518.657341053244</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D11" s="3">
         <v>110062125</v>
@@ -2823,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>60</v>
@@ -2835,7 +2823,7 @@
         <v>61</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>39</v>
@@ -2850,10 +2838,10 @@
         <v>42</v>
       </c>
       <c r="U11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>43</v>
@@ -2910,13 +2898,13 @@
         <v>51</v>
       </c>
       <c r="AO11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AQ11" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ11" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2924,10 +2912,10 @@
         <v>44518.658719803236</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="3">
         <v>110062138</v>
@@ -2954,7 +2942,7 @@
         <v>38</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>60</v>
@@ -2966,7 +2954,7 @@
         <v>61</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>39</v>
@@ -2981,10 +2969,10 @@
         <v>42</v>
       </c>
       <c r="U12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>43</v>
@@ -3041,13 +3029,13 @@
         <v>51</v>
       </c>
       <c r="AO12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP12" s="3" t="s">
+      <c r="AQ12" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ12" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3055,10 +3043,10 @@
         <v>44518.658821053235</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D13" s="3">
         <v>110062322</v>
@@ -3085,7 +3073,7 @@
         <v>38</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>60</v>
@@ -3097,7 +3085,7 @@
         <v>61</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>39</v>
@@ -3112,10 +3100,10 @@
         <v>42</v>
       </c>
       <c r="U13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>43</v>
@@ -3172,13 +3160,13 @@
         <v>51</v>
       </c>
       <c r="AO13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP13" s="3" t="s">
+      <c r="AQ13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ13" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3186,10 +3174,10 @@
         <v>44518.659011597221</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D14" s="3">
         <v>110062214</v>
@@ -3216,7 +3204,7 @@
         <v>38</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>60</v>
@@ -3228,10 +3216,10 @@
         <v>61</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>40</v>
@@ -3243,10 +3231,10 @@
         <v>42</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>43</v>
@@ -3303,13 +3291,13 @@
         <v>51</v>
       </c>
       <c r="AO14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AQ14" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3317,10 +3305,10 @@
         <v>44518.659204016207</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D15" s="3">
         <v>110000217</v>
@@ -3332,7 +3320,7 @@
         <v>55</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>57</v>
@@ -3347,7 +3335,7 @@
         <v>38</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>60</v>
@@ -3356,10 +3344,10 @@
         <v>443</v>
       </c>
       <c r="O15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>39</v>
@@ -3374,10 +3362,10 @@
         <v>42</v>
       </c>
       <c r="U15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>43</v>
@@ -3434,13 +3422,13 @@
         <v>51</v>
       </c>
       <c r="AO15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP15" s="3" t="s">
+      <c r="AQ15" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ15" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3448,10 +3436,10 @@
         <v>44518.65923449074</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3">
         <v>110062128</v>
@@ -3490,7 +3478,7 @@
         <v>61</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>39</v>
@@ -3505,10 +3493,10 @@
         <v>42</v>
       </c>
       <c r="U16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>43</v>
@@ -3565,13 +3553,13 @@
         <v>51</v>
       </c>
       <c r="AO16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP16" s="3" t="s">
+      <c r="AQ16" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ16" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3579,10 +3567,10 @@
         <v>44518.659518645829</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3">
         <v>110062112</v>
@@ -3609,13 +3597,13 @@
         <v>38</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>61</v>
@@ -3624,7 +3612,7 @@
         <v>62</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>40</v>
@@ -3636,10 +3624,10 @@
         <v>42</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>43</v>
@@ -3696,13 +3684,13 @@
         <v>51</v>
       </c>
       <c r="AO17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP17" s="3" t="s">
+      <c r="AQ17" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3710,10 +3698,10 @@
         <v>44518.660155196761</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" s="3">
         <v>110062238</v>
@@ -3725,7 +3713,7 @@
         <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>57</v>
@@ -3737,10 +3725,10 @@
         <v>58</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>60</v>
@@ -3749,7 +3737,7 @@
         <v>443</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>62</v>
@@ -3767,7 +3755,7 @@
         <v>42</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V18" s="3">
         <v>481</v>
@@ -3827,13 +3815,13 @@
         <v>51</v>
       </c>
       <c r="AO18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP18" s="3" t="s">
+      <c r="AQ18" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ18" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3841,10 +3829,10 @@
         <v>44518.661020983796</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" s="3">
         <v>110062226</v>
@@ -3853,10 +3841,10 @@
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>57</v>
@@ -3871,7 +3859,7 @@
         <v>38</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>60</v>
@@ -3880,16 +3868,16 @@
         <v>443</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>41</v>
@@ -3898,10 +3886,10 @@
         <v>42</v>
       </c>
       <c r="U19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>43</v>
@@ -3958,13 +3946,13 @@
         <v>51</v>
       </c>
       <c r="AO19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP19" s="3" t="s">
+      <c r="AQ19" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ19" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3972,10 +3960,10 @@
         <v>44518.661303171291</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="3">
         <v>110062122</v>
@@ -4002,7 +3990,7 @@
         <v>38</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>60</v>
@@ -4011,13 +3999,13 @@
         <v>443</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>40</v>
@@ -4029,10 +4017,10 @@
         <v>42</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>43</v>
@@ -4089,13 +4077,13 @@
         <v>47</v>
       </c>
       <c r="AO20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP20" s="3" t="s">
+      <c r="AQ20" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ20" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4103,10 +4091,10 @@
         <v>44518.661924664353</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3">
         <v>110062219</v>
@@ -4130,10 +4118,10 @@
         <v>58</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>60</v>
@@ -4145,7 +4133,7 @@
         <v>61</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>39</v>
@@ -4160,10 +4148,10 @@
         <v>42</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>43</v>
@@ -4220,13 +4208,13 @@
         <v>51</v>
       </c>
       <c r="AO21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP21" s="3" t="s">
+      <c r="AQ21" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ21" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4234,10 +4222,10 @@
         <v>44518.662207604168</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3">
         <v>110062333</v>
@@ -4249,7 +4237,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>57</v>
@@ -4258,13 +4246,13 @@
         <v>37</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>60</v>
@@ -4273,28 +4261,28 @@
         <v>443</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="U22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>43</v>
@@ -4351,13 +4339,13 @@
         <v>47</v>
       </c>
       <c r="AO22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP22" s="3" t="s">
+      <c r="AQ22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ22" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4365,10 +4353,10 @@
         <v>44518.662237002311</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="3">
         <v>110000106</v>
@@ -4380,7 +4368,7 @@
         <v>55</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>57</v>
@@ -4395,7 +4383,7 @@
         <v>38</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>60</v>
@@ -4422,10 +4410,10 @@
         <v>42</v>
       </c>
       <c r="U23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>43</v>
@@ -4482,13 +4470,13 @@
         <v>51</v>
       </c>
       <c r="AO23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP23" s="3" t="s">
+      <c r="AQ23" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ23" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4496,10 +4484,10 @@
         <v>44518.662260347221</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24" s="3">
         <v>110062101</v>
@@ -4511,7 +4499,7 @@
         <v>55</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>57</v>
@@ -4526,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>60</v>
@@ -4553,10 +4541,10 @@
         <v>42</v>
       </c>
       <c r="U24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>43</v>
@@ -4613,13 +4601,13 @@
         <v>51</v>
       </c>
       <c r="AO24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP24" s="3" t="s">
+      <c r="AQ24" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ24" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4627,10 +4615,10 @@
         <v>44518.662566157407</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="3">
         <v>110062327</v>
@@ -4642,7 +4630,7 @@
         <v>55</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>57</v>
@@ -4657,7 +4645,7 @@
         <v>38</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>60</v>
@@ -4669,7 +4657,7 @@
         <v>61</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>39</v>
@@ -4684,10 +4672,10 @@
         <v>42</v>
       </c>
       <c r="U25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>43</v>
@@ -4744,13 +4732,13 @@
         <v>51</v>
       </c>
       <c r="AO25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP25" s="3" t="s">
+      <c r="AQ25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ25" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4758,10 +4746,10 @@
         <v>44518.662852870373</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D26" s="3">
         <v>110000111</v>
@@ -4773,7 +4761,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>57</v>
@@ -4788,7 +4776,7 @@
         <v>38</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>60</v>
@@ -4815,10 +4803,10 @@
         <v>42</v>
       </c>
       <c r="U26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>43</v>
@@ -4875,13 +4863,13 @@
         <v>51</v>
       </c>
       <c r="AO26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP26" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP26" s="3" t="s">
+      <c r="AQ26" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ26" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4889,10 +4877,10 @@
         <v>44518.663187858794</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D27" s="3">
         <v>110062135</v>
@@ -4919,7 +4907,7 @@
         <v>38</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>60</v>
@@ -4931,10 +4919,10 @@
         <v>61</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>40</v>
@@ -4946,10 +4934,10 @@
         <v>42</v>
       </c>
       <c r="U27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>43</v>
@@ -5006,13 +4994,13 @@
         <v>51</v>
       </c>
       <c r="AO27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP27" s="3" t="s">
+      <c r="AQ27" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ27" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5020,10 +5008,10 @@
         <v>44518.663284780094</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D28" s="3">
         <v>110062115</v>
@@ -5035,7 +5023,7 @@
         <v>55</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>57</v>
@@ -5050,7 +5038,7 @@
         <v>38</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>60</v>
@@ -5062,13 +5050,13 @@
         <v>61</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>41</v>
@@ -5077,10 +5065,10 @@
         <v>42</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="W28" s="3" t="s">
         <v>43</v>
@@ -5137,13 +5125,13 @@
         <v>51</v>
       </c>
       <c r="AO28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP28" s="3" t="s">
+      <c r="AQ28" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ28" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5151,10 +5139,10 @@
         <v>44518.663712974536</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="3">
         <v>110062130</v>
@@ -5181,7 +5169,7 @@
         <v>38</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>60</v>
@@ -5193,7 +5181,7 @@
         <v>61</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>39</v>
@@ -5268,13 +5256,13 @@
         <v>51</v>
       </c>
       <c r="AO29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP29" s="3" t="s">
+      <c r="AQ29" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ29" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5282,10 +5270,10 @@
         <v>44518.663972523151</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D30" s="3">
         <v>109062220</v>
@@ -5297,7 +5285,7 @@
         <v>55</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>57</v>
@@ -5312,10 +5300,10 @@
         <v>38</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N30" s="3">
         <v>80</v>
@@ -5324,7 +5312,7 @@
         <v>61</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>39</v>
@@ -5339,10 +5327,10 @@
         <v>42</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W30" s="3" t="s">
         <v>43</v>
@@ -5399,13 +5387,13 @@
         <v>51</v>
       </c>
       <c r="AO30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP30" s="3" t="s">
+      <c r="AQ30" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ30" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5413,10 +5401,10 @@
         <v>44518.664391539351</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" s="3">
         <v>110062227</v>
@@ -5443,7 +5431,7 @@
         <v>38</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>60</v>
@@ -5458,7 +5446,7 @@
         <v>62</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>40</v>
@@ -5530,13 +5518,13 @@
         <v>51</v>
       </c>
       <c r="AO31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP31" s="3" t="s">
+      <c r="AQ31" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ31" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5544,10 +5532,10 @@
         <v>44518.664535405092</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="3">
         <v>110062136</v>
@@ -5559,13 +5547,13 @@
         <v>55</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>58</v>
@@ -5574,7 +5562,7 @@
         <v>38</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>60</v>
@@ -5583,13 +5571,13 @@
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>40</v>
@@ -5598,13 +5586,13 @@
         <v>41</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>43</v>
@@ -5661,13 +5649,13 @@
         <v>51</v>
       </c>
       <c r="AO32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP32" s="3" t="s">
+      <c r="AQ32" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ32" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5675,10 +5663,10 @@
         <v>44518.664842164348</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D33" s="3">
         <v>110062202</v>
@@ -5705,7 +5693,7 @@
         <v>38</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>60</v>
@@ -5714,10 +5702,10 @@
         <v>443</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>39</v>
@@ -5732,10 +5720,10 @@
         <v>42</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>43</v>
@@ -5792,13 +5780,13 @@
         <v>51</v>
       </c>
       <c r="AO33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP33" s="3" t="s">
+      <c r="AQ33" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ33" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5806,16 +5794,16 @@
         <v>44518.6652225</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D34" s="3">
         <v>110062302</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>55</v>
@@ -5836,7 +5824,7 @@
         <v>38</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>60</v>
@@ -5848,7 +5836,7 @@
         <v>61</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>39</v>
@@ -5860,13 +5848,13 @@
         <v>41</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V34" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W34" s="3" t="s">
         <v>43</v>
@@ -5923,13 +5911,13 @@
         <v>51</v>
       </c>
       <c r="AO34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP34" s="3" t="s">
+      <c r="AQ34" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ34" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5937,10 +5925,10 @@
         <v>44518.665357418984</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="3">
         <v>110062140</v>
@@ -5967,7 +5955,7 @@
         <v>38</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>60</v>
@@ -5994,7 +5982,7 @@
         <v>42</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V35" s="3">
         <v>488</v>
@@ -6054,13 +6042,13 @@
         <v>51</v>
       </c>
       <c r="AO35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP35" s="3" t="s">
+      <c r="AQ35" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ35" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6068,10 +6056,10 @@
         <v>44518.665719224533</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D36" s="3">
         <v>110062339</v>
@@ -6098,7 +6086,7 @@
         <v>38</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>60</v>
@@ -6110,7 +6098,7 @@
         <v>61</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>39</v>
@@ -6125,10 +6113,10 @@
         <v>42</v>
       </c>
       <c r="U36" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="V36" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>43</v>
@@ -6185,13 +6173,13 @@
         <v>51</v>
       </c>
       <c r="AO36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP36" s="3" t="s">
+      <c r="AQ36" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ36" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6199,22 +6187,22 @@
         <v>44518.665886168979</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D37" s="3">
         <v>110062309</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>57</v>
@@ -6229,10 +6217,10 @@
         <v>38</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N37" s="3">
         <v>443</v>
@@ -6241,10 +6229,10 @@
         <v>61</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>40</v>
@@ -6253,7 +6241,7 @@
         <v>41</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U37" s="3">
         <v>400</v>
@@ -6316,13 +6304,13 @@
         <v>51</v>
       </c>
       <c r="AO37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP37" s="3" t="s">
+      <c r="AQ37" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ37" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6330,10 +6318,10 @@
         <v>44518.666323159719</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D38" s="3">
         <v>110090035</v>
@@ -6360,7 +6348,7 @@
         <v>38</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>60</v>
@@ -6372,25 +6360,25 @@
         <v>61</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R38" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T38" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="S38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="U38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V38" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W38" s="3" t="s">
         <v>43</v>
@@ -6447,13 +6435,13 @@
         <v>51</v>
       </c>
       <c r="AO38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP38" s="3" t="s">
+      <c r="AQ38" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ38" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6461,28 +6449,28 @@
         <v>44518.666559768521</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D39" s="3">
         <v>108000132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>58</v>
@@ -6491,7 +6479,7 @@
         <v>38</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>60</v>
@@ -6503,10 +6491,10 @@
         <v>61</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>40</v>
@@ -6518,10 +6506,10 @@
         <v>42</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="3" t="s">
         <v>43</v>
@@ -6578,13 +6566,13 @@
         <v>51</v>
       </c>
       <c r="AO39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP39" s="3" t="s">
+      <c r="AQ39" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ39" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6592,10 +6580,10 @@
         <v>44518.666788402777</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D40" s="3">
         <v>110060029</v>
@@ -6622,7 +6610,7 @@
         <v>38</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>60</v>
@@ -6640,7 +6628,7 @@
         <v>39</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>41</v>
@@ -6649,10 +6637,10 @@
         <v>42</v>
       </c>
       <c r="U40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V40" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W40" s="3" t="s">
         <v>43</v>
@@ -6709,13 +6697,13 @@
         <v>51</v>
       </c>
       <c r="AO40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP40" s="3" t="s">
+      <c r="AQ40" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ40" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6723,10 +6711,10 @@
         <v>44518.666889409724</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D41" s="3">
         <v>110062215</v>
@@ -6753,7 +6741,7 @@
         <v>38</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>60</v>
@@ -6765,10 +6753,10 @@
         <v>61</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>40</v>
@@ -6780,10 +6768,10 @@
         <v>42</v>
       </c>
       <c r="U41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V41" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>43</v>
@@ -6840,13 +6828,13 @@
         <v>51</v>
       </c>
       <c r="AO41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP41" s="3" t="s">
+      <c r="AQ41" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ41" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -6854,10 +6842,10 @@
         <v>44518.666893148147</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D42" s="3">
         <v>110062320</v>
@@ -6884,7 +6872,7 @@
         <v>38</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>60</v>
@@ -6896,7 +6884,7 @@
         <v>61</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>39</v>
@@ -6911,10 +6899,10 @@
         <v>42</v>
       </c>
       <c r="U42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>43</v>
@@ -6971,13 +6959,13 @@
         <v>51</v>
       </c>
       <c r="AO42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP42" s="3" t="s">
+      <c r="AQ42" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ42" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -6985,10 +6973,10 @@
         <v>44518.667016435182</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D43" s="3">
         <v>110060015</v>
@@ -7015,7 +7003,7 @@
         <v>38</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>60</v>
@@ -7024,10 +7012,10 @@
         <v>443</v>
       </c>
       <c r="O43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>39</v>
@@ -7042,7 +7030,7 @@
         <v>42</v>
       </c>
       <c r="U43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V43" s="3">
         <v>488</v>
@@ -7102,13 +7090,13 @@
         <v>51</v>
       </c>
       <c r="AO43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP43" s="3" t="s">
+      <c r="AQ43" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ43" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7116,10 +7104,10 @@
         <v>44518.667528032413</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D44" s="3">
         <v>110000270</v>
@@ -7131,7 +7119,7 @@
         <v>55</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>57</v>
@@ -7146,7 +7134,7 @@
         <v>38</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>60</v>
@@ -7155,10 +7143,10 @@
         <v>80</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>39</v>
@@ -7173,10 +7161,10 @@
         <v>42</v>
       </c>
       <c r="U44" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>43</v>
@@ -7233,13 +7221,13 @@
         <v>51</v>
       </c>
       <c r="AO44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP44" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP44" s="3" t="s">
+      <c r="AQ44" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ44" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7247,10 +7235,10 @@
         <v>44518.668705497686</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D45" s="3">
         <v>110062231</v>
@@ -7277,7 +7265,7 @@
         <v>38</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>60</v>
@@ -7292,7 +7280,7 @@
         <v>62</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>40</v>
@@ -7304,10 +7292,10 @@
         <v>42</v>
       </c>
       <c r="U45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V45" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>43</v>
@@ -7364,13 +7352,13 @@
         <v>51</v>
       </c>
       <c r="AO45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP45" s="3" t="s">
+      <c r="AQ45" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ45" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7378,10 +7366,10 @@
         <v>44518.669515856483</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" s="3">
         <v>110062243</v>
@@ -7408,7 +7396,7 @@
         <v>38</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>60</v>
@@ -7420,10 +7408,10 @@
         <v>61</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>40</v>
@@ -7432,7 +7420,7 @@
         <v>41</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
@@ -7495,13 +7483,13 @@
         <v>51</v>
       </c>
       <c r="AO46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP46" s="3" t="s">
+      <c r="AQ46" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ46" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7509,10 +7497,10 @@
         <v>44518.669986504625</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D47" s="3">
         <v>110062331</v>
@@ -7524,7 +7512,7 @@
         <v>55</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>57</v>
@@ -7539,7 +7527,7 @@
         <v>38</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>60</v>
@@ -7548,10 +7536,10 @@
         <v>443</v>
       </c>
       <c r="O47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>39</v>
@@ -7626,13 +7614,13 @@
         <v>51</v>
       </c>
       <c r="AO47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP47" s="3" t="s">
+      <c r="AQ47" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ47" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7640,10 +7628,10 @@
         <v>44518.670501342596</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D48" s="3">
         <v>110062213</v>
@@ -7685,7 +7673,7 @@
         <v>62</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>40</v>
@@ -7697,10 +7685,10 @@
         <v>42</v>
       </c>
       <c r="U48" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>43</v>
@@ -7757,13 +7745,13 @@
         <v>51</v>
       </c>
       <c r="AO48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP48" s="3" t="s">
+      <c r="AQ48" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ48" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7771,10 +7759,10 @@
         <v>44518.670943819445</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D49" s="3">
         <v>110062123</v>
@@ -7786,7 +7774,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>57</v>
@@ -7801,7 +7789,7 @@
         <v>38</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>60</v>
@@ -7813,10 +7801,10 @@
         <v>61</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>40</v>
@@ -7828,10 +7816,10 @@
         <v>42</v>
       </c>
       <c r="U49" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>43</v>
@@ -7888,13 +7876,13 @@
         <v>51</v>
       </c>
       <c r="AO49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP49" s="3" t="s">
+      <c r="AQ49" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ49" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -7902,22 +7890,22 @@
         <v>44518.671043078706</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D50" s="3">
         <v>110062235</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>57</v>
@@ -7932,7 +7920,7 @@
         <v>38</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>60</v>
@@ -7941,13 +7929,13 @@
         <v>443</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>62</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R50" s="3" t="s">
         <v>40</v>
@@ -7959,10 +7947,10 @@
         <v>42</v>
       </c>
       <c r="U50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="3" t="s">
         <v>43</v>
@@ -8019,13 +8007,13 @@
         <v>51</v>
       </c>
       <c r="AO50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP50" s="3" t="s">
+      <c r="AQ50" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ50" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8033,10 +8021,10 @@
         <v>44518.671104814814</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D51" s="3">
         <v>108020020</v>
@@ -8063,7 +8051,7 @@
         <v>38</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>60</v>
@@ -8075,7 +8063,7 @@
         <v>61</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>39</v>
@@ -8090,10 +8078,10 @@
         <v>42</v>
       </c>
       <c r="U51" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>43</v>
@@ -8150,13 +8138,13 @@
         <v>51</v>
       </c>
       <c r="AO51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP51" s="3" t="s">
+      <c r="AQ51" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ51" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8164,10 +8152,10 @@
         <v>44518.671780937497</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D52" s="3">
         <v>110062324</v>
@@ -8194,7 +8182,7 @@
         <v>38</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>60</v>
@@ -8203,10 +8191,10 @@
         <v>443</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>39</v>
@@ -8218,13 +8206,13 @@
         <v>41</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>43</v>
@@ -8281,13 +8269,13 @@
         <v>51</v>
       </c>
       <c r="AO52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP52" s="3" t="s">
+      <c r="AQ52" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ52" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8295,10 +8283,10 @@
         <v>44518.671995381941</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D53" s="3">
         <v>110060017</v>
@@ -8310,7 +8298,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>57</v>
@@ -8325,7 +8313,7 @@
         <v>38</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>60</v>
@@ -8337,7 +8325,7 @@
         <v>61</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>39</v>
@@ -8352,10 +8340,10 @@
         <v>42</v>
       </c>
       <c r="U53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="3" t="s">
         <v>43</v>
@@ -8412,13 +8400,13 @@
         <v>51</v>
       </c>
       <c r="AO53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP53" s="3" t="s">
+      <c r="AQ53" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ53" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8426,10 +8414,10 @@
         <v>44518.672113356486</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D54" s="3">
         <v>110062239</v>
@@ -8456,7 +8444,7 @@
         <v>38</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>60</v>
@@ -8468,19 +8456,19 @@
         <v>61</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
@@ -8543,13 +8531,13 @@
         <v>51</v>
       </c>
       <c r="AO54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP54" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP54" s="3" t="s">
+      <c r="AQ54" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ54" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8557,10 +8545,10 @@
         <v>44518.672170648148</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D55" s="3">
         <v>110062236</v>
@@ -8572,7 +8560,7 @@
         <v>55</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>57</v>
@@ -8587,7 +8575,7 @@
         <v>38</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>60</v>
@@ -8596,10 +8584,10 @@
         <v>443</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>39</v>
@@ -8614,7 +8602,7 @@
         <v>42</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="V55" s="3">
         <v>488</v>
@@ -8674,13 +8662,13 @@
         <v>51</v>
       </c>
       <c r="AO55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP55" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP55" s="3" t="s">
+      <c r="AQ55" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ55" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8688,16 +8676,16 @@
         <v>44518.672594224539</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D56" s="3">
         <v>110590017</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>55</v>
@@ -8715,7 +8703,7 @@
         <v>58</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>59</v>
@@ -8724,16 +8712,16 @@
         <v>60</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>61</v>
       </c>
       <c r="P56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q56" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>40</v>
@@ -8745,10 +8733,10 @@
         <v>42</v>
       </c>
       <c r="U56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V56" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W56" s="3" t="s">
         <v>43</v>
@@ -8805,13 +8793,13 @@
         <v>51</v>
       </c>
       <c r="AO56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP56" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP56" s="3" t="s">
+      <c r="AQ56" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ56" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8819,10 +8807,10 @@
         <v>44518.673078969907</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D57" s="3">
         <v>110062110</v>
@@ -8849,7 +8837,7 @@
         <v>38</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>60</v>
@@ -8858,7 +8846,7 @@
         <v>443</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>62</v>
@@ -8876,10 +8864,10 @@
         <v>42</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>43</v>
@@ -8936,13 +8924,13 @@
         <v>51</v>
       </c>
       <c r="AO57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP57" s="3" t="s">
+      <c r="AQ57" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ57" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -8950,10 +8938,10 @@
         <v>44518.673101932873</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D58" s="3">
         <v>110060035</v>
@@ -8965,7 +8953,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>57</v>
@@ -8980,7 +8968,7 @@
         <v>38</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>60</v>
@@ -8989,16 +8977,16 @@
         <v>443</v>
       </c>
       <c r="O58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>41</v>
@@ -9007,10 +8995,10 @@
         <v>42</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>43</v>
@@ -9067,13 +9055,13 @@
         <v>51</v>
       </c>
       <c r="AO58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP58" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP58" s="3" t="s">
+      <c r="AQ58" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ58" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9081,10 +9069,10 @@
         <v>44518.673280590279</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D59" s="3">
         <v>107031208</v>
@@ -9105,13 +9093,13 @@
         <v>37</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>60</v>
@@ -9138,10 +9126,10 @@
         <v>42</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>43</v>
@@ -9198,13 +9186,13 @@
         <v>51</v>
       </c>
       <c r="AO59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP59" s="3" t="s">
+      <c r="AQ59" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ59" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9212,10 +9200,10 @@
         <v>44518.673363993061</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D60" s="3">
         <v>108006261</v>
@@ -9239,7 +9227,7 @@
         <v>58</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>59</v>
@@ -9254,25 +9242,25 @@
         <v>61</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="V60" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>43</v>
@@ -9329,13 +9317,13 @@
         <v>51</v>
       </c>
       <c r="AO60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP60" s="3" t="s">
+      <c r="AQ60" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ60" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9343,10 +9331,10 @@
         <v>44518.673469814814</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D61" s="3">
         <v>110062161</v>
@@ -9373,7 +9361,7 @@
         <v>38</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>60</v>
@@ -9382,13 +9370,13 @@
         <v>443</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>40</v>
@@ -9400,10 +9388,10 @@
         <v>42</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="3" t="s">
         <v>43</v>
@@ -9460,13 +9448,13 @@
         <v>51</v>
       </c>
       <c r="AO61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP61" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP61" s="3" t="s">
+      <c r="AQ61" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ61" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9474,10 +9462,10 @@
         <v>44518.673947696763</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D62" s="3">
         <v>110060024</v>
@@ -9504,7 +9492,7 @@
         <v>38</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>60</v>
@@ -9513,13 +9501,13 @@
         <v>443</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>40</v>
@@ -9531,10 +9519,10 @@
         <v>42</v>
       </c>
       <c r="U62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>43</v>
@@ -9591,13 +9579,13 @@
         <v>51</v>
       </c>
       <c r="AO62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP62" s="3" t="s">
+      <c r="AQ62" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ62" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9605,10 +9593,10 @@
         <v>44518.674756979162</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D63" s="3">
         <v>110062118</v>
@@ -9635,7 +9623,7 @@
         <v>38</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>60</v>
@@ -9644,10 +9632,10 @@
         <v>443</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>39</v>
@@ -9659,13 +9647,13 @@
         <v>41</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U63" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="W63" s="3" t="s">
         <v>43</v>
@@ -9722,13 +9710,13 @@
         <v>51</v>
       </c>
       <c r="AO63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP63" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP63" s="3" t="s">
+      <c r="AQ63" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ63" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9736,10 +9724,10 @@
         <v>44518.674925196756</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D64" s="3">
         <v>110062120</v>
@@ -9751,7 +9739,7 @@
         <v>55</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>57</v>
@@ -9766,22 +9754,22 @@
         <v>38</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N64" s="3">
         <v>443</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>62</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>40</v>
@@ -9793,10 +9781,10 @@
         <v>42</v>
       </c>
       <c r="U64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W64" s="3" t="s">
         <v>43</v>
@@ -9853,13 +9841,13 @@
         <v>51</v>
       </c>
       <c r="AO64" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP64" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP64" s="3" t="s">
+      <c r="AQ64" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ64" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9867,10 +9855,10 @@
         <v>44518.675457962963</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D65" s="3">
         <v>110062340</v>
@@ -9894,10 +9882,10 @@
         <v>58</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>60</v>
@@ -9909,7 +9897,7 @@
         <v>61</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>39</v>
@@ -9924,10 +9912,10 @@
         <v>42</v>
       </c>
       <c r="U65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V65" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V65" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W65" s="3" t="s">
         <v>43</v>
@@ -9984,13 +9972,13 @@
         <v>51</v>
       </c>
       <c r="AO65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP65" s="3" t="s">
+      <c r="AQ65" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ65" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -9998,10 +9986,10 @@
         <v>44518.675461678242</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D66" s="3">
         <v>109062173</v>
@@ -10013,7 +10001,7 @@
         <v>55</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>57</v>
@@ -10028,7 +10016,7 @@
         <v>38</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>60</v>
@@ -10040,7 +10028,7 @@
         <v>61</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>39</v>
@@ -10055,10 +10043,10 @@
         <v>42</v>
       </c>
       <c r="U66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V66" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>43</v>
@@ -10115,13 +10103,13 @@
         <v>51</v>
       </c>
       <c r="AO66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP66" s="3" t="s">
+      <c r="AQ66" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ66" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10129,10 +10117,10 @@
         <v>44518.676135613423</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D67" s="3">
         <v>110062336</v>
@@ -10144,7 +10132,7 @@
         <v>55</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>57</v>
@@ -10159,7 +10147,7 @@
         <v>38</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>60</v>
@@ -10171,7 +10159,7 @@
         <v>61</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q67" s="3" t="s">
         <v>39</v>
@@ -10186,10 +10174,10 @@
         <v>42</v>
       </c>
       <c r="U67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V67" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V67" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W67" s="3" t="s">
         <v>43</v>
@@ -10246,13 +10234,13 @@
         <v>51</v>
       </c>
       <c r="AO67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP67" s="3" t="s">
+      <c r="AQ67" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ67" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10260,10 +10248,10 @@
         <v>44518.676210277779</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D68" s="3">
         <v>110062307</v>
@@ -10290,7 +10278,7 @@
         <v>38</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>60</v>
@@ -10302,16 +10290,16 @@
         <v>61</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>42</v>
@@ -10377,13 +10365,13 @@
         <v>51</v>
       </c>
       <c r="AO68" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP68" s="3" t="s">
+      <c r="AQ68" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ68" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10391,10 +10379,10 @@
         <v>44518.677972604171</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D69" s="3">
         <v>110060062</v>
@@ -10433,10 +10421,10 @@
         <v>61</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>40</v>
@@ -10448,10 +10436,10 @@
         <v>42</v>
       </c>
       <c r="U69" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V69" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W69" s="3" t="s">
         <v>43</v>
@@ -10508,13 +10496,13 @@
         <v>51</v>
       </c>
       <c r="AO69" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP69" s="3" t="s">
+      <c r="AQ69" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ69" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10522,10 +10510,10 @@
         <v>44518.67799862269</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D70" s="3">
         <v>110000222</v>
@@ -10552,7 +10540,7 @@
         <v>38</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>60</v>
@@ -10564,7 +10552,7 @@
         <v>61</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>39</v>
@@ -10579,10 +10567,10 @@
         <v>42</v>
       </c>
       <c r="U70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V70" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W70" s="3" t="s">
         <v>43</v>
@@ -10639,13 +10627,13 @@
         <v>51</v>
       </c>
       <c r="AO70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP70" s="3" t="s">
+      <c r="AQ70" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ70" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10653,10 +10641,10 @@
         <v>44518.680067546295</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D71" s="3">
         <v>110060018</v>
@@ -10683,7 +10671,7 @@
         <v>38</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>60</v>
@@ -10695,13 +10683,13 @@
         <v>61</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>41</v>
@@ -10710,10 +10698,10 @@
         <v>42</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="3" t="s">
         <v>43</v>
@@ -10770,13 +10758,13 @@
         <v>51</v>
       </c>
       <c r="AO71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP71" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP71" s="3" t="s">
+      <c r="AQ71" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ71" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10784,10 +10772,10 @@
         <v>44518.681542337959</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D72" s="3">
         <v>110062323</v>
@@ -10814,7 +10802,7 @@
         <v>38</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>60</v>
@@ -10826,7 +10814,7 @@
         <v>61</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>39</v>
@@ -10841,10 +10829,10 @@
         <v>42</v>
       </c>
       <c r="U72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V72" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>43</v>
@@ -10901,13 +10889,13 @@
         <v>51</v>
       </c>
       <c r="AO72" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP72" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP72" s="3" t="s">
+      <c r="AQ72" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ72" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -10915,10 +10903,10 @@
         <v>44518.681953252315</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D73" s="3">
         <v>109062214</v>
@@ -10945,7 +10933,7 @@
         <v>38</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>60</v>
@@ -11032,13 +11020,13 @@
         <v>51</v>
       </c>
       <c r="AO73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP73" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP73" s="3" t="s">
+      <c r="AQ73" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ73" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11046,10 +11034,10 @@
         <v>44518.682158819443</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D74" s="3">
         <v>110062132</v>
@@ -11061,7 +11049,7 @@
         <v>55</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>57</v>
@@ -11076,7 +11064,7 @@
         <v>38</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>60</v>
@@ -11085,13 +11073,13 @@
         <v>443</v>
       </c>
       <c r="O74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P74" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="Q74" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>40</v>
@@ -11103,10 +11091,10 @@
         <v>42</v>
       </c>
       <c r="U74" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="W74" s="3" t="s">
         <v>43</v>
@@ -11163,13 +11151,13 @@
         <v>51</v>
       </c>
       <c r="AO74" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP74" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP74" s="3" t="s">
+      <c r="AQ74" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ74" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11177,10 +11165,10 @@
         <v>44518.683713773149</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D75" s="3">
         <v>110062134</v>
@@ -11192,7 +11180,7 @@
         <v>55</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>57</v>
@@ -11207,7 +11195,7 @@
         <v>38</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>60</v>
@@ -11216,19 +11204,19 @@
         <v>443</v>
       </c>
       <c r="O75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P75" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="Q75" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>42</v>
@@ -11294,13 +11282,13 @@
         <v>51</v>
       </c>
       <c r="AO75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP75" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP75" s="3" t="s">
+      <c r="AQ75" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ75" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11308,10 +11296,10 @@
         <v>44518.685990462967</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D76" s="3">
         <v>110062304</v>
@@ -11338,7 +11326,7 @@
         <v>38</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>60</v>
@@ -11347,7 +11335,7 @@
         <v>443</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>62</v>
@@ -11356,7 +11344,7 @@
         <v>39</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>41</v>
@@ -11365,10 +11353,10 @@
         <v>42</v>
       </c>
       <c r="U76" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V76" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>43</v>
@@ -11425,13 +11413,13 @@
         <v>51</v>
       </c>
       <c r="AO76" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP76" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP76" s="3" t="s">
+      <c r="AQ76" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ76" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11439,10 +11427,10 @@
         <v>44518.68632922454</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D77" s="3">
         <v>110062244</v>
@@ -11469,7 +11457,7 @@
         <v>38</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>60</v>
@@ -11478,7 +11466,7 @@
         <v>443</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>62</v>
@@ -11496,10 +11484,10 @@
         <v>42</v>
       </c>
       <c r="U77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V77" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V77" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W77" s="3" t="s">
         <v>43</v>
@@ -11556,13 +11544,13 @@
         <v>51</v>
       </c>
       <c r="AO77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP77" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP77" s="3" t="s">
+      <c r="AQ77" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ77" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11570,10 +11558,10 @@
         <v>44518.686501585646</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D78" s="3">
         <v>110062141</v>
@@ -11600,7 +11588,7 @@
         <v>38</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>60</v>
@@ -11609,13 +11597,13 @@
         <v>443</v>
       </c>
       <c r="O78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P78" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="Q78" s="3" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>40</v>
@@ -11627,10 +11615,10 @@
         <v>42</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="3" t="s">
         <v>43</v>
@@ -11687,13 +11675,13 @@
         <v>51</v>
       </c>
       <c r="AO78" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP78" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP78" s="3" t="s">
+      <c r="AQ78" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ78" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11701,10 +11689,10 @@
         <v>44518.687997222223</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D79" s="3">
         <v>109020016</v>
@@ -11731,7 +11719,7 @@
         <v>38</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>60</v>
@@ -11743,10 +11731,10 @@
         <v>61</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>40</v>
@@ -11758,10 +11746,10 @@
         <v>42</v>
       </c>
       <c r="U79" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W79" s="3" t="s">
         <v>43</v>
@@ -11818,13 +11806,13 @@
         <v>51</v>
       </c>
       <c r="AO79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP79" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP79" s="3" t="s">
+      <c r="AQ79" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ79" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11832,10 +11820,10 @@
         <v>44518.688623321759</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D80" s="3">
         <v>110000119</v>
@@ -11862,7 +11850,7 @@
         <v>38</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>60</v>
@@ -11871,13 +11859,13 @@
         <v>443</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>62</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>40</v>
@@ -11889,10 +11877,10 @@
         <v>42</v>
       </c>
       <c r="U80" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W80" s="3" t="s">
         <v>43</v>
@@ -11949,13 +11937,13 @@
         <v>51</v>
       </c>
       <c r="AO80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP80" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP80" s="3" t="s">
+      <c r="AQ80" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ80" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -11963,10 +11951,10 @@
         <v>44518.693470405095</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D81" s="3">
         <v>110062311</v>
@@ -11993,7 +11981,7 @@
         <v>38</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>60</v>
@@ -12002,7 +11990,7 @@
         <v>443</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>62</v>
@@ -12020,10 +12008,10 @@
         <v>42</v>
       </c>
       <c r="U81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V81" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>43</v>
@@ -12080,13 +12068,13 @@
         <v>51</v>
       </c>
       <c r="AO81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP81" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP81" s="3" t="s">
+      <c r="AQ81" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ81" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12094,10 +12082,10 @@
         <v>44518.695282094908</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D82" s="3">
         <v>110062319</v>
@@ -12124,7 +12112,7 @@
         <v>38</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>60</v>
@@ -12136,7 +12124,7 @@
         <v>61</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>39</v>
@@ -12151,10 +12139,10 @@
         <v>42</v>
       </c>
       <c r="U82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V82" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V82" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W82" s="3" t="s">
         <v>43</v>
@@ -12211,13 +12199,13 @@
         <v>51</v>
       </c>
       <c r="AO82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP82" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP82" s="3" t="s">
+      <c r="AQ82" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ82" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12225,10 +12213,10 @@
         <v>44518.700351631946</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D83" s="3">
         <v>108006202</v>
@@ -12240,7 +12228,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>57</v>
@@ -12249,25 +12237,25 @@
         <v>37</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N83" s="3">
         <v>443</v>
       </c>
       <c r="O83" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>39</v>
@@ -12282,10 +12270,10 @@
         <v>42</v>
       </c>
       <c r="U83" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>43</v>
@@ -12342,13 +12330,13 @@
         <v>51</v>
       </c>
       <c r="AO83" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP83" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP83" s="3" t="s">
+      <c r="AQ83" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ83" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12356,10 +12344,10 @@
         <v>44518.700521215273</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D84" s="3">
         <v>108006234</v>
@@ -12368,10 +12356,10 @@
         <v>54</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>57</v>
@@ -12380,43 +12368,43 @@
         <v>37</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N84" s="3">
         <v>443</v>
       </c>
       <c r="O84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P84" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="Q84" s="3" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S84" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="W84" s="3" t="s">
         <v>43</v>
@@ -12473,13 +12461,13 @@
         <v>51</v>
       </c>
       <c r="AO84" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP84" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP84" s="3" t="s">
+      <c r="AQ84" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ84" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12487,10 +12475,10 @@
         <v>44518.703344918977</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D85" s="3">
         <v>110062104</v>
@@ -12517,7 +12505,7 @@
         <v>38</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>60</v>
@@ -12544,10 +12532,10 @@
         <v>42</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W85" s="3" t="s">
         <v>43</v>
@@ -12604,13 +12592,13 @@
         <v>51</v>
       </c>
       <c r="AO85" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP85" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP85" s="3" t="s">
+      <c r="AQ85" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ85" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12618,10 +12606,10 @@
         <v>44518.713303946759</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D86" s="3">
         <v>110000166</v>
@@ -12630,10 +12618,10 @@
         <v>54</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>57</v>
@@ -12642,43 +12630,43 @@
         <v>37</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N86" s="3">
         <v>443</v>
       </c>
       <c r="O86" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q86" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="R86" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="S86" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="T86" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="Q86" s="4" t="s">
+      <c r="U86" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="R86" s="4" t="s">
+      <c r="V86" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="S86" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="T86" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="U86" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="V86" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="W86" s="3" t="s">
         <v>44</v>
@@ -12735,13 +12723,13 @@
         <v>47</v>
       </c>
       <c r="AO86" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP86" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ86" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AQ86" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12749,10 +12737,10 @@
         <v>44518.713488333335</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D87" s="3">
         <v>110060014</v>
@@ -12779,7 +12767,7 @@
         <v>38</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>60</v>
@@ -12791,7 +12779,7 @@
         <v>61</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>39</v>
@@ -12806,10 +12794,10 @@
         <v>42</v>
       </c>
       <c r="U87" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="V87" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="V87" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="W87" s="3" t="s">
         <v>43</v>
@@ -12866,13 +12854,13 @@
         <v>51</v>
       </c>
       <c r="AO87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP87" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP87" s="3" t="s">
+      <c r="AQ87" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ87" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -12880,10 +12868,10 @@
         <v>44518.718796284724</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D88" s="3">
         <v>110062106</v>
@@ -12907,10 +12895,10 @@
         <v>58</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>60</v>
@@ -12919,13 +12907,13 @@
         <v>443</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>40</v>
@@ -12937,10 +12925,10 @@
         <v>42</v>
       </c>
       <c r="U88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V88" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="V88" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="W88" s="3" t="s">
         <v>43</v>
@@ -12997,13 +12985,13 @@
         <v>51</v>
       </c>
       <c r="AO88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP88" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP88" s="3" t="s">
+      <c r="AQ88" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ88" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -13011,22 +12999,22 @@
         <v>44518.721031076391</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D89" s="3">
         <v>110000207</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>57</v>
@@ -13035,7 +13023,7 @@
         <v>37</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>38</v>
@@ -13044,10 +13032,10 @@
         <v>59</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>61</v>
@@ -13128,13 +13116,13 @@
         <v>51</v>
       </c>
       <c r="AO89" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP89" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP89" s="3" t="s">
+      <c r="AQ89" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ89" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -13142,10 +13130,10 @@
         <v>44518.721388252314</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D90" s="3">
         <v>110000167</v>
@@ -13166,13 +13154,13 @@
         <v>37</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>60</v>
@@ -13181,13 +13169,13 @@
         <v>443</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>40</v>
@@ -13199,10 +13187,10 @@
         <v>42</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W90" s="3" t="s">
         <v>43</v>
@@ -13259,13 +13247,13 @@
         <v>51</v>
       </c>
       <c r="AO90" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP90" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP90" s="3" t="s">
+      <c r="AQ90" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ90" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:43" ht="13" x14ac:dyDescent="0.15">
@@ -13273,10 +13261,10 @@
         <v>44518.721432002319</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D91" s="3">
         <v>110000162</v>
@@ -13288,7 +13276,7 @@
         <v>55</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>57</v>
@@ -13297,7 +13285,7 @@
         <v>37</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>38</v>
@@ -13306,34 +13294,34 @@
         <v>59</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N91" s="3">
         <v>443</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="U91" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>43</v>
@@ -13390,13 +13378,13 @@
         <v>51</v>
       </c>
       <c r="AO91" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP91" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AP91" s="3" t="s">
+      <c r="AQ91" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ91" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/google_form_reply.xlsx
+++ b/google_form_reply.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Desktop/midterm_correction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C62D2B9-BF67-9147-8BAB-B4D7F5CDC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A875BB-2E0A-614B-8E07-2965CC259C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="940" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="376">
   <si>
     <t>時間戳記</t>
   </si>
@@ -590,9 +590,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2607:f8b0:4004:080a::200e </t>
-  </si>
-  <si>
-    <t>v=J7yg4sWElcU</t>
   </si>
   <si>
     <t>了解情況 site:https://dictionary.cambridge.org</t>
@@ -1456,9 +1453,9 @@
   </sheetPr>
   <dimension ref="A1:AQ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1626,7 +1623,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>38</v>
@@ -1757,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>38</v>
@@ -1885,7 +1882,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>58</v>
@@ -4270,7 +4267,7 @@
         <v>39</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>136</v>
@@ -6229,7 +6226,7 @@
         <v>61</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>39</v>
@@ -6241,7 +6238,7 @@
         <v>41</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U37" s="3">
         <v>400</v>
@@ -6318,10 +6315,10 @@
         <v>44518.666323159719</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D38" s="3">
         <v>110090035</v>
@@ -6366,13 +6363,13 @@
         <v>39</v>
       </c>
       <c r="R38" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="S38" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="U38" s="3" t="s">
         <v>78</v>
@@ -6449,22 +6446,22 @@
         <v>44518.666559768521</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D39" s="3">
         <v>108000132</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>57</v>
@@ -6494,7 +6491,7 @@
         <v>96</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>40</v>
@@ -6580,10 +6577,10 @@
         <v>44518.666788402777</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="D40" s="3">
         <v>110060029</v>
@@ -6628,7 +6625,7 @@
         <v>39</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>41</v>
@@ -6711,10 +6708,10 @@
         <v>44518.666889409724</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="D41" s="3">
         <v>110062215</v>
@@ -6842,10 +6839,10 @@
         <v>44518.666893148147</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D42" s="3">
         <v>110062320</v>
@@ -6973,10 +6970,10 @@
         <v>44518.667016435182</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D43" s="3">
         <v>110060015</v>
@@ -7104,10 +7101,10 @@
         <v>44518.667528032413</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D44" s="3">
         <v>110000270</v>
@@ -7143,10 +7140,10 @@
         <v>80</v>
       </c>
       <c r="O44" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>39</v>
@@ -7161,10 +7158,10 @@
         <v>42</v>
       </c>
       <c r="U44" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="V44" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>43</v>
@@ -7235,10 +7232,10 @@
         <v>44518.668705497686</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="D45" s="3">
         <v>110062231</v>
@@ -7280,7 +7277,7 @@
         <v>62</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>40</v>
@@ -7366,10 +7363,10 @@
         <v>44518.669515856483</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D46" s="3">
         <v>110062243</v>
@@ -7420,7 +7417,7 @@
         <v>41</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
@@ -7497,10 +7494,10 @@
         <v>44518.669986504625</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D47" s="3">
         <v>110062331</v>
@@ -7628,10 +7625,10 @@
         <v>44518.670501342596</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D48" s="3">
         <v>110062213</v>
@@ -7688,7 +7685,7 @@
         <v>72</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>43</v>
@@ -7759,10 +7756,10 @@
         <v>44518.670943819445</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="D49" s="3">
         <v>110062123</v>
@@ -7819,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>43</v>
@@ -7890,16 +7887,16 @@
         <v>44518.671043078706</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D50" s="3">
         <v>110062235</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>55</v>
@@ -8021,10 +8018,10 @@
         <v>44518.671104814814</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="D51" s="3">
         <v>108020020</v>
@@ -8078,10 +8075,10 @@
         <v>42</v>
       </c>
       <c r="U51" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="V51" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>43</v>
@@ -8152,10 +8149,10 @@
         <v>44518.671780937497</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D52" s="3">
         <v>110062324</v>
@@ -8206,7 +8203,7 @@
         <v>41</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>78</v>
@@ -8283,10 +8280,10 @@
         <v>44518.671995381941</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D53" s="3">
         <v>110060017</v>
@@ -8414,10 +8411,10 @@
         <v>44518.672113356486</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D54" s="3">
         <v>110062239</v>
@@ -8462,13 +8459,13 @@
         <v>39</v>
       </c>
       <c r="R54" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="S54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="T54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
@@ -8545,10 +8542,10 @@
         <v>44518.672170648148</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D55" s="3">
         <v>110062236</v>
@@ -8602,7 +8599,7 @@
         <v>42</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V55" s="3">
         <v>488</v>
@@ -8676,16 +8673,16 @@
         <v>44518.672594224539</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="D56" s="3">
         <v>110590017</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>55</v>
@@ -8703,7 +8700,7 @@
         <v>58</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>59</v>
@@ -8712,7 +8709,7 @@
         <v>60</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>61</v>
@@ -8807,10 +8804,10 @@
         <v>44518.673078969907</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D57" s="3">
         <v>110062110</v>
@@ -8864,7 +8861,7 @@
         <v>42</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>79</v>
@@ -8938,10 +8935,10 @@
         <v>44518.673101932873</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D58" s="3">
         <v>110060035</v>
@@ -8986,7 +8983,7 @@
         <v>39</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>41</v>
@@ -9069,10 +9066,10 @@
         <v>44518.673280590279</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D59" s="3">
         <v>107031208</v>
@@ -9093,7 +9090,7 @@
         <v>37</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>38</v>
@@ -9200,10 +9197,10 @@
         <v>44518.673363993061</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D60" s="3">
         <v>108006261</v>
@@ -9227,7 +9224,7 @@
         <v>58</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>59</v>
@@ -9248,19 +9245,19 @@
         <v>39</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>41</v>
       </c>
       <c r="T60" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="U60" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="V60" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>43</v>
@@ -9331,10 +9328,10 @@
         <v>44518.673469814814</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D61" s="3">
         <v>110062161</v>
@@ -9462,10 +9459,10 @@
         <v>44518.673947696763</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="D62" s="3">
         <v>110060024</v>
@@ -9501,7 +9498,7 @@
         <v>443</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>77</v>
@@ -9593,10 +9590,10 @@
         <v>44518.674756979162</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D63" s="3">
         <v>110062118</v>
@@ -9647,13 +9644,13 @@
         <v>41</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U63" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="V63" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="W63" s="3" t="s">
         <v>43</v>
@@ -9724,10 +9721,10 @@
         <v>44518.674925196756</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D64" s="3">
         <v>110062120</v>
@@ -9757,7 +9754,7 @@
         <v>70</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N64" s="3">
         <v>443</v>
@@ -9855,10 +9852,10 @@
         <v>44518.675457962963</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D65" s="3">
         <v>110062340</v>
@@ -9882,7 +9879,7 @@
         <v>58</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L65" s="3" t="s">
         <v>70</v>
@@ -9986,10 +9983,10 @@
         <v>44518.675461678242</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D66" s="3">
         <v>109062173</v>
@@ -10117,10 +10114,10 @@
         <v>44518.676135613423</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="D67" s="3">
         <v>110062336</v>
@@ -10147,7 +10144,7 @@
         <v>38</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>60</v>
@@ -10248,10 +10245,10 @@
         <v>44518.676210277779</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D68" s="3">
         <v>110062307</v>
@@ -10296,10 +10293,10 @@
         <v>90</v>
       </c>
       <c r="R68" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="S68" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>42</v>
@@ -10379,10 +10376,10 @@
         <v>44518.677972604171</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D69" s="3">
         <v>110060062</v>
@@ -10436,10 +10433,10 @@
         <v>42</v>
       </c>
       <c r="U69" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V69" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="W69" s="3" t="s">
         <v>43</v>
@@ -10510,10 +10507,10 @@
         <v>44518.67799862269</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="D70" s="3">
         <v>110000222</v>
@@ -10641,10 +10638,10 @@
         <v>44518.680067546295</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D71" s="3">
         <v>110060018</v>
@@ -10689,7 +10686,7 @@
         <v>170</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>41</v>
@@ -10772,10 +10769,10 @@
         <v>44518.681542337959</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="D72" s="3">
         <v>110062323</v>
@@ -10903,10 +10900,10 @@
         <v>44518.681953252315</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="D73" s="3">
         <v>109062214</v>
@@ -11034,10 +11031,10 @@
         <v>44518.682158819443</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D74" s="3">
         <v>110062132</v>
@@ -11064,7 +11061,7 @@
         <v>38</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>60</v>
@@ -11091,10 +11088,10 @@
         <v>42</v>
       </c>
       <c r="U74" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="V74" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="V74" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="W74" s="3" t="s">
         <v>43</v>
@@ -11165,10 +11162,10 @@
         <v>44518.683713773149</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D75" s="3">
         <v>110062134</v>
@@ -11180,7 +11177,7 @@
         <v>55</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>57</v>
@@ -11195,7 +11192,7 @@
         <v>38</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>60</v>
@@ -11213,10 +11210,10 @@
         <v>90</v>
       </c>
       <c r="R75" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="S75" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="S75" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="T75" s="3" t="s">
         <v>42</v>
@@ -11296,10 +11293,10 @@
         <v>44518.685990462967</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D76" s="3">
         <v>110062304</v>
@@ -11326,7 +11323,7 @@
         <v>38</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>60</v>
@@ -11344,7 +11341,7 @@
         <v>39</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>41</v>
@@ -11427,10 +11424,10 @@
         <v>44518.68632922454</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D77" s="3">
         <v>110062244</v>
@@ -11558,10 +11555,10 @@
         <v>44518.686501585646</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="D78" s="3">
         <v>110062141</v>
@@ -11689,10 +11686,10 @@
         <v>44518.687997222223</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="D79" s="3">
         <v>109020016</v>
@@ -11746,10 +11743,10 @@
         <v>42</v>
       </c>
       <c r="U79" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V79" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="V79" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="W79" s="3" t="s">
         <v>43</v>
@@ -11820,10 +11817,10 @@
         <v>44518.688623321759</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D80" s="3">
         <v>110000119</v>
@@ -11951,10 +11948,10 @@
         <v>44518.693470405095</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="D81" s="3">
         <v>110062311</v>
@@ -12082,10 +12079,10 @@
         <v>44518.695282094908</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="D82" s="3">
         <v>110062319</v>
@@ -12213,10 +12210,10 @@
         <v>44518.700351631946</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="D83" s="3">
         <v>108006202</v>
@@ -12228,7 +12225,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>57</v>
@@ -12237,16 +12234,16 @@
         <v>37</v>
       </c>
       <c r="J83" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>70</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N83" s="3">
         <v>443</v>
@@ -12270,10 +12267,10 @@
         <v>42</v>
       </c>
       <c r="U83" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="V83" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>43</v>
@@ -12344,10 +12341,10 @@
         <v>44518.700521215273</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D84" s="3">
         <v>108006234</v>
@@ -12356,7 +12353,7 @@
         <v>54</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>117</v>
@@ -12368,16 +12365,16 @@
         <v>37</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>70</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N84" s="3">
         <v>443</v>
@@ -12392,13 +12389,13 @@
         <v>39</v>
       </c>
       <c r="R84" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="S84" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="S84" s="3" t="s">
+      <c r="T84" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="T84" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="U84" s="3" t="s">
         <v>163</v>
@@ -12475,10 +12472,10 @@
         <v>44518.703344918977</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D85" s="3">
         <v>110062104</v>
@@ -12532,10 +12529,10 @@
         <v>42</v>
       </c>
       <c r="U85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V85" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="V85" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="W85" s="3" t="s">
         <v>43</v>
@@ -12606,10 +12603,10 @@
         <v>44518.713303946759</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D86" s="3">
         <v>110000166</v>
@@ -12618,7 +12615,7 @@
         <v>54</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>117</v>
@@ -12630,43 +12627,43 @@
         <v>37</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L86" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="M86" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="N86" s="3">
         <v>443</v>
       </c>
       <c r="O86" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P86" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="Q86" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="Q86" s="4" t="s">
+      <c r="R86" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="R86" s="4" t="s">
+      <c r="S86" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="S86" s="4" t="s">
+      <c r="T86" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="T86" s="4" t="s">
+      <c r="U86" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="U86" s="3" t="s">
+      <c r="V86" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="V86" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="W86" s="3" t="s">
         <v>44</v>
@@ -12737,10 +12734,10 @@
         <v>44518.713488333335</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>354</v>
       </c>
       <c r="D87" s="3">
         <v>110060014</v>
@@ -12868,10 +12865,10 @@
         <v>44518.718796284724</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D88" s="3">
         <v>110062106</v>
@@ -12907,7 +12904,7 @@
         <v>443</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>96</v>
@@ -12999,16 +12996,16 @@
         <v>44518.721031076391</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D89" s="3">
         <v>110000207</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>55</v>
@@ -13023,7 +13020,7 @@
         <v>37</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>38</v>
@@ -13032,10 +13029,10 @@
         <v>59</v>
       </c>
       <c r="M89" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>61</v>
@@ -13130,10 +13127,10 @@
         <v>44518.721388252314</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="D90" s="3">
         <v>110000167</v>
@@ -13157,7 +13154,7 @@
         <v>135</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>70</v>
@@ -13187,10 +13184,10 @@
         <v>42</v>
       </c>
       <c r="U90" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V90" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="V90" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="W90" s="3" t="s">
         <v>43</v>
@@ -13261,10 +13258,10 @@
         <v>44518.721432002319</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="D91" s="3">
         <v>110000162</v>
@@ -13276,7 +13273,7 @@
         <v>55</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>57</v>
@@ -13294,13 +13291,13 @@
         <v>59</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N91" s="3">
         <v>443</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>96</v>
@@ -13309,19 +13306,19 @@
         <v>39</v>
       </c>
       <c r="R91" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="U91" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>43</v>
